--- a/docs/Javaデザインパターン完全マスター.xlsx
+++ b/docs/Javaデザインパターン完全マスター.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youhe\Desktop\Y.U.Studio_in_FreeAddress\IT\Java完全マスターシリーズ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CC270F-CF81-43BB-A53D-C9EEE028440E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F8CCB0-992F-429D-BCEF-666E64F637C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="360" windowWidth="15675" windowHeight="14910" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="75" windowWidth="15675" windowHeight="14910" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー" sheetId="1" r:id="rId1"/>
     <sheet name="Singleton" sheetId="3" r:id="rId2"/>
     <sheet name="Adapter" sheetId="4" r:id="rId3"/>
     <sheet name="AbstractFactory" sheetId="5" r:id="rId4"/>
-    <sheet name="FactoryMethod" sheetId="2" r:id="rId5"/>
+    <sheet name="Builder" sheetId="6" r:id="rId5"/>
+    <sheet name="FactoryMethod" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="282">
   <si>
     <t>Javaデザインパターン完全マスター</t>
     <rPh sb="12" eb="14">
@@ -1250,6 +1251,269 @@
   </si>
   <si>
     <t xml:space="preserve">            teturn new OtherCarFactory();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Builderパターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考サイト：https://www.techscore.com/tech/DesignPattern/Builder.html/</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public interface Builder {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void addTires(int tireamount);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void addHandle(int handleamount);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Object getResult();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public class LexusBuilder implements Builder {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public class LexusCar {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    private int tires;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    private int handle;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public LexusCar(int tires, int handle) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 対象</t>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    private LexusCar lexusCar;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public LexusBuilds() {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.lexusCar = new LexusCar(0, 0);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void addTires(int tireamount) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    // ゲッター、セッター記載省略</t>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        lexusCar.setTires(tireamount);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void addHandle(int handleamount) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        lexusCar.setHandle(handleamount);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void removeTires(int tireamount);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void removeTires(int tireamount) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        int amt = lexusCar.getTires();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (amt &gt; 2) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            lexusCar.setTires(amt - tireamount) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Object getResult() {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        return lexusCar;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// ビルダー実装クラス</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// ビルダーインターフェース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Builder builder = new LexusBuilder();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public class Director {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    praivate Builder builder;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Director(Builder builder) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.builder = builder;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void constract() {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        builder addTires(4);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        builder addHandle(1);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        builder removeTires(2);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        builder addTires(6);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// ディレクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Director director = new Director(builder);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dir.constract();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LexusCar lexusCar = (LexusCar)builder.getResult();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 利用方法</t>
+    <rPh sb="3" eb="5">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルダーインターフェースに基本的な機能(メソッド)を持たせ、ビルダー実装クラスに生成するオブジェクトとその実装メソッドを実装する。</t>
+    <rPh sb="13" eb="16">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用する際は、どのインスタンス化させるビルダーを選択し、それをディレクターに渡し、処理結果のオブジェクトを受け取る。</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクターは、ビルダーにパラメータを与えるメソッドを実装する。</t>
+    <rPh sb="19" eb="20">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッソウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1257,7 +1521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,17 +1562,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="0"/>
       <name val="Yu Gothic"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFC000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1339,15 +1610,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2235,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BA60A4-73BB-4E29-BF78-35A783AF83AD}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
@@ -2246,373 +2521,1270 @@
     <col min="1" max="16384" width="4.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:17">
       <c r="B3" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:17">
       <c r="B5" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="4" t="s">
+    <row r="6" spans="1:17">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="5" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="4" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="5" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="4" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="5" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="4" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="4" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="C17" s="4" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="C18" s="4" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="C20" s="4" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="C21" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="D21" s="4" t="s">
+    <row r="22" spans="2:17">
+      <c r="D22" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="D22" s="4" t="s">
+    <row r="23" spans="2:17">
+      <c r="D23" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="D23" s="4" t="s">
+    <row r="24" spans="2:17">
+      <c r="D24" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="C24" s="4" t="s">
+    <row r="25" spans="2:17">
+      <c r="C25" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="D25" s="4" t="s">
+    <row r="26" spans="2:17">
+      <c r="D26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="D26" s="4" t="s">
+    <row r="27" spans="2:17">
+      <c r="D27" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="C27" s="4" t="s">
+    <row r="28" spans="2:17">
+      <c r="C28" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="D28" s="4" t="s">
+    <row r="29" spans="2:17">
+      <c r="D29" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="D29" s="4" t="s">
+    <row r="30" spans="2:17">
+      <c r="D30" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="2:17">
+      <c r="B32" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="4" t="s">
+    <row r="33" spans="2:16">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="5" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="5" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="2:23">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="C50" s="4" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="2:23">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="52" spans="2:23">
+      <c r="C52" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="D51" s="4" t="s">
+    <row r="53" spans="2:23">
+      <c r="D53" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
-      <c r="D52" s="4" t="s">
+    <row r="54" spans="2:23">
+      <c r="D54" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
-      <c r="D53" s="4" t="s">
+    <row r="55" spans="2:23">
+      <c r="D55" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
-      <c r="C54" s="4" t="s">
+    <row r="56" spans="2:23">
+      <c r="C56" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
-      <c r="D55" s="4" t="s">
+    <row r="57" spans="2:23">
+      <c r="D57" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
-      <c r="D56" s="4" t="s">
+    <row r="58" spans="2:23">
+      <c r="D58" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
-      <c r="C57" s="4" t="s">
+    <row r="59" spans="2:23">
+      <c r="C59" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
-      <c r="D58" s="4" t="s">
+    <row r="60" spans="2:23">
+      <c r="D60" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="4" t="s">
+    <row r="62" spans="2:23">
+      <c r="B62" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
-      <c r="C62" s="4" t="s">
+    <row r="63" spans="2:23">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+    </row>
+    <row r="64" spans="2:23">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="C63" s="4" t="s">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+    </row>
+    <row r="65" spans="2:23">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="C64" s="4" t="s">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+    </row>
+    <row r="66" spans="2:23">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="4" t="s">
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+    </row>
+    <row r="67" spans="2:23">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="4" t="s">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+    </row>
+    <row r="68" spans="2:23">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="4" t="s">
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+    </row>
+    <row r="69" spans="2:23">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="4" t="s">
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+    </row>
+    <row r="70" spans="2:23">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+    </row>
+    <row r="71" spans="2:23">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+    </row>
+    <row r="72" spans="2:23">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="4" t="s">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+    </row>
+    <row r="73" spans="2:23">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+    </row>
+    <row r="74" spans="2:23">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+    </row>
+    <row r="75" spans="2:23">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" s="4" t="s">
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+    </row>
+    <row r="76" spans="2:23">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="4" t="s">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+    </row>
+    <row r="77" spans="2:23">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="4" t="s">
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+    </row>
+    <row r="78" spans="2:23">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="4" t="s">
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+    </row>
+    <row r="79" spans="2:23">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="4" t="s">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+    </row>
+    <row r="80" spans="2:23">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+    </row>
+    <row r="81" spans="2:23">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+    </row>
+    <row r="83" spans="2:23">
+      <c r="C83" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="3:4">
-      <c r="D81" s="4" t="s">
+    <row r="84" spans="2:23">
+      <c r="D84" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="3:4">
-      <c r="D82" s="4" t="s">
+    <row r="85" spans="2:23">
+      <c r="D85" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="3:4">
-      <c r="D83" s="4" t="s">
+    <row r="86" spans="2:23">
+      <c r="D86" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="3:4">
-      <c r="D84" s="4" t="s">
+    <row r="87" spans="2:23">
+      <c r="D87" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="4" t="s">
+    <row r="88" spans="2:23">
+      <c r="C88" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="3:4">
-      <c r="D86" s="4" t="s">
+    <row r="89" spans="2:23">
+      <c r="D89" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="3:4">
-      <c r="D87" s="4" t="s">
+    <row r="90" spans="2:23">
+      <c r="D90" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="3:4">
-      <c r="C88" s="4" t="s">
+    <row r="91" spans="2:23">
+      <c r="C91" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="3:4">
-      <c r="D89" s="4" t="s">
+    <row r="92" spans="2:23">
+      <c r="D92" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="3:4">
-      <c r="D90" s="4" t="s">
+    <row r="93" spans="2:23">
+      <c r="D93" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2625,128 +3797,455 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EFED6-6C9B-4696-A5A5-5AA8FA64CDA9}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="6" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2756,338 +4255,1466 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E0181-D672-4DDB-AC3F-2E8F3617AC8F}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:17">
       <c r="B3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:17">
       <c r="B4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:17">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="2:17">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="2:17">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="2:17">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="2:17">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3096,6 +5723,1216 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A04BBD-7C0D-4830-866A-47E6085EC4D1}">
+  <dimension ref="A1:P74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="2:16">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="2:16">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="2:16">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="2:16">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="2:16">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="2:16">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+    </row>
+    <row r="63" spans="2:16">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+    </row>
+    <row r="64" spans="2:16">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+    </row>
+    <row r="65" spans="2:16">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+    </row>
+    <row r="66" spans="2:16">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+    </row>
+    <row r="67" spans="2:16">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+    </row>
+    <row r="70" spans="2:16">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+    </row>
+    <row r="71" spans="2:16">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+    </row>
+    <row r="72" spans="2:16">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="2:16">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="2:16">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F7E5B1-9AEC-47A8-B63D-0BB9FEF4DFE7}">
   <dimension ref="A1:N63"/>
   <sheetViews>

--- a/docs/Javaデザインパターン完全マスター.xlsx
+++ b/docs/Javaデザインパターン完全マスター.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youhe\Desktop\Y.U.Studio_in_FreeAddress\IT\Java完全マスターシリーズ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F8CCB0-992F-429D-BCEF-666E64F637C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E282725-A336-4F9F-AD53-7C166545B033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="75" windowWidth="15675" windowHeight="14910" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="180" windowWidth="15675" windowHeight="14790" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AbstractFactory" sheetId="5" r:id="rId4"/>
     <sheet name="Builder" sheetId="6" r:id="rId5"/>
     <sheet name="FactoryMethod" sheetId="2" r:id="rId6"/>
+    <sheet name="Facade" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="326">
   <si>
     <t>Javaデザインパターン完全マスター</t>
     <rPh sb="12" eb="14">
@@ -304,10 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サンプルコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■処理手順</t>
     <rPh sb="1" eb="3">
       <t>ショリ</t>
@@ -364,10 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>□</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Builder</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -594,46 +587,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1回目</t>
-    <rPh sb="1" eb="3">
-      <t>カイメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2回目</t>
-    <rPh sb="1" eb="3">
-      <t>カイメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.sejuku.net/blog/60038</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3回目</t>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4回目</t>
-    <rPh sb="1" eb="3">
-      <t>カイメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>□</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -644,23 +598,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5回目</t>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>難</t>
-    <rPh sb="0" eb="1">
-      <t>ナン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">    // Singleton instance.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1451,62 +1388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ビルダーインターフェースに基本的な機能(メソッド)を持たせ、ビルダー実装クラスに生成するオブジェクトとその実装メソッドを実装する。</t>
-    <rPh sb="13" eb="16">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用する際は、どのインスタンス化させるビルダーを選択し、それをディレクターに渡し、処理結果のオブジェクトを受け取る。</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ディレクターは、ビルダーにパラメータを与えるメソッドを実装する。</t>
     <rPh sb="19" eb="20">
       <t>アタ</t>
@@ -1514,6 +1395,464 @@
     <rPh sb="27" eb="29">
       <t>ジッソウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルダーインターフェースに基本的な機能(メソッド)を持たせ、ビルダー実装クラスには生成するオブジェクトとその実装メソッドを実装する。</t>
+    <rPh sb="13" eb="16">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用する際は、インスタンス化させるビルダーを選択し、それをディレクターに渡し、処理結果のオブジェクトを受け取る。</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考サイト：</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Factory Methodパターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Façadeパターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考サイト：</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.techscore.com/tech/DesignPattern/Facade.html/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 所蔵本リスト</t>
+    <rPh sb="3" eb="5">
+      <t>ショゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public class BookList {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String searchBook(String bookName) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        String location = null;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 本の名前から探す</t>
+    <rPh sb="11" eb="12">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        // あれば書の場所を、なければnullを返す</t>
+    <rPh sb="14" eb="15">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        return location;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 貸出帳</t>
+    <rPh sb="3" eb="5">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public class LendingList {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public boolean check(String bookName) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 貸出帳をチェックする</t>
+    <rPh sb="11" eb="13">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 貸出中ならtrue、そうでなければfalseを返す</t>
+    <rPh sb="11" eb="14">
+      <t>カシダシチュウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        return true;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 窓口クラス</t>
+    <rPh sb="3" eb="5">
+      <t>マドグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public class Librarian {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 本を探す</t>
+    <rPh sb="11" eb="12">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        BookList bookList = new BookList();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        String location = bookList.searchBook(bookName);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 本の場所がnullではない(所蔵している)とき</t>
+    <rPh sb="11" eb="12">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (location != null) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            // 貸出中かチェックする</t>
+    <rPh sb="15" eb="18">
+      <t>カシダシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            LendingList lendingList = new LendingList();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (lendingList.check(bookName)) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                // 貸出中のとき</t>
+    <rPh sb="19" eb="22">
+      <t>カシダシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                return "貸出中です";</t>
+    <rPh sb="24" eb="27">
+      <t>カシダシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            } else {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                // 貸出中ではないとき</t>
+    <rPh sb="19" eb="22">
+      <t>カシダシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                return location;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 所蔵してないとき</t>
+    <rPh sb="11" eb="13">
+      <t>ショゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            return "その本は所蔵していません";</t>
+    <rPh sb="22" eb="23">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 利用者</t>
+    <rPh sb="3" eb="6">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public class Visitor {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] args) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 窓口のインスタンスを作る</t>
+    <rPh sb="11" eb="13">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Librarian librarian = new Librarian();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 本の場所を聞く</t>
+    <rPh sb="11" eb="12">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        String location = librarian.searchBook("アーキテクト教本");</t>
+    <rPh sb="54" eb="56">
+      <t>キョウホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (location.equals("貸出中です")) {</t>
+    <rPh sb="29" eb="32">
+      <t>カシダシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("貸出中かよ…");</t>
+    <rPh sb="32" eb="35">
+      <t>カシダシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        } else if (location.equals("その本は所蔵していません")) {</t>
+    <rPh sb="38" eb="39">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("なんだ、ないのか");</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("サンキュ！");</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の例は、本を借りたい人が受付(窓口)の人に聞く場合をサンプルケース。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のクラスメソッドを呼び出す際、窓口となるクラスを用意して、そのクラスのメソッドですべての処理を行わせることにより、</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者の利便性を図る手法。</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>リベンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1610,7 +1949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1623,6 +1962,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1904,598 +2244,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="B5" s="3" t="s">
+    <row r="7" spans="1:15">
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
       <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" t="s">
-        <v>75</v>
-      </c>
-      <c r="T8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="C10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>73</v>
       </c>
-      <c r="N10" t="s">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>55</v>
-      </c>
-      <c r="T11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" t="s">
-        <v>55</v>
-      </c>
-      <c r="T12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
+    <row r="13" spans="1:15">
       <c r="D13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
         <v>53</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="T13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" t="s">
-        <v>55</v>
-      </c>
-      <c r="T14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" t="s">
-        <v>55</v>
-      </c>
-      <c r="T15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
       <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="N16" t="s">
-        <v>63</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" t="s">
+    <row r="20" spans="2:15">
+      <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="N17" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:20">
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" t="s">
+    <row r="21" spans="2:15">
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="N18" t="s">
-        <v>63</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" t="s">
+    <row r="23" spans="2:15">
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="D27" t="s">
         <v>59</v>
-      </c>
-      <c r="N19" t="s">
-        <v>63</v>
-      </c>
-      <c r="T19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" t="s">
-        <v>74</v>
-      </c>
-      <c r="N20" t="s">
-        <v>75</v>
-      </c>
-      <c r="T20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21" t="s">
-        <v>75</v>
-      </c>
-      <c r="T21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" t="s">
-        <v>63</v>
-      </c>
-      <c r="T22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N23" t="s">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" t="s">
-        <v>70</v>
-      </c>
-      <c r="N24" t="s">
-        <v>75</v>
-      </c>
-      <c r="T24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" t="s">
-        <v>75</v>
-      </c>
-      <c r="T25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" t="s">
-        <v>71</v>
-      </c>
-      <c r="N26" t="s">
-        <v>75</v>
-      </c>
-      <c r="T26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" t="s">
-        <v>109</v>
       </c>
       <c r="I27" t="s">
         <v>61</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="T27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" t="s">
-        <v>62</v>
-      </c>
-      <c r="N28" t="s">
-        <v>63</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="I29" t="s">
+        <v>73</v>
+      </c>
+      <c r="O29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="2:20">
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" t="s">
-        <v>65</v>
-      </c>
-      <c r="N29" t="s">
-        <v>75</v>
-      </c>
-      <c r="T29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
+    <row r="30" spans="2:15">
       <c r="D30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
-      </c>
-      <c r="N30" t="s">
-        <v>75</v>
-      </c>
-      <c r="T30" t="s">
-        <v>91</v>
+        <v>73</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2593,7 @@
   <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
@@ -2523,17 +2603,17 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="B3" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2557,7 +2637,7 @@
     <row r="7" spans="1:17">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2577,7 +2657,7 @@
     <row r="8" spans="1:17">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2597,7 +2677,7 @@
     <row r="9" spans="1:17">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2635,7 +2715,7 @@
     <row r="11" spans="1:17">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2655,7 +2735,7 @@
     <row r="12" spans="1:17">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2693,7 +2773,7 @@
     <row r="14" spans="1:17">
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2713,7 +2793,7 @@
     <row r="15" spans="1:17">
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2733,7 +2813,7 @@
     <row r="16" spans="1:17">
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2810,57 +2890,57 @@
     </row>
     <row r="21" spans="2:17">
       <c r="C21" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="D22" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:17">
       <c r="D23" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:17">
       <c r="D24" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="C25" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:17">
       <c r="D26" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:17">
       <c r="D27" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="2:17">
       <c r="C28" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:17">
       <c r="D29" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:17">
       <c r="D30" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:16">
@@ -2883,7 +2963,7 @@
     <row r="34" spans="2:16">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2902,7 +2982,7 @@
     <row r="35" spans="2:16">
       <c r="B35" s="6"/>
       <c r="C35" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2921,7 +3001,7 @@
     <row r="36" spans="2:16">
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2957,7 +3037,7 @@
     <row r="38" spans="2:16">
       <c r="B38" s="6"/>
       <c r="C38" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2976,7 +3056,7 @@
     <row r="39" spans="2:16">
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -3012,7 +3092,7 @@
     <row r="41" spans="2:16">
       <c r="B41" s="6"/>
       <c r="C41" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -3031,7 +3111,7 @@
     <row r="42" spans="2:16">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -3050,7 +3130,7 @@
     <row r="43" spans="2:16">
       <c r="B43" s="6"/>
       <c r="C43" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -3069,7 +3149,7 @@
     <row r="44" spans="2:16">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -3088,7 +3168,7 @@
     <row r="45" spans="2:16">
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -3107,7 +3187,7 @@
     <row r="46" spans="2:16">
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -3126,7 +3206,7 @@
     <row r="47" spans="2:16">
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -3199,52 +3279,52 @@
     </row>
     <row r="52" spans="2:23">
       <c r="C52" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="2:23">
       <c r="D53" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="2:23">
       <c r="D54" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="2:23">
       <c r="D55" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="2:23">
       <c r="C56" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:23">
       <c r="D57" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="2:23">
       <c r="D58" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="2:23">
       <c r="C59" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="2:23">
       <c r="D60" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="2:23">
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="2:23">
@@ -3274,7 +3354,7 @@
     <row r="64" spans="2:23">
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3300,7 +3380,7 @@
     <row r="65" spans="2:23">
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -3326,7 +3406,7 @@
     <row r="66" spans="2:23">
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -3352,7 +3432,7 @@
     <row r="67" spans="2:23">
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3378,7 +3458,7 @@
     <row r="68" spans="2:23">
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3404,7 +3484,7 @@
     <row r="69" spans="2:23">
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -3480,7 +3560,7 @@
     <row r="72" spans="2:23">
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -3506,7 +3586,7 @@
     <row r="73" spans="2:23">
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -3556,7 +3636,7 @@
     <row r="75" spans="2:23">
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -3582,7 +3662,7 @@
     <row r="76" spans="2:23">
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -3608,7 +3688,7 @@
     <row r="77" spans="2:23">
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -3634,7 +3714,7 @@
     <row r="78" spans="2:23">
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -3735,57 +3815,57 @@
     </row>
     <row r="83" spans="2:23">
       <c r="C83" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="2:23">
       <c r="D84" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="2:23">
       <c r="D85" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="2:23">
       <c r="D86" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="2:23">
       <c r="D87" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="2:23">
       <c r="C88" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="2:23">
       <c r="D89" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="2:23">
       <c r="D90" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="2:23">
       <c r="C91" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="2:23">
       <c r="D92" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="2:23">
       <c r="D93" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3807,22 +3887,22 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -3844,7 +3924,7 @@
     <row r="9" spans="1:15">
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -3862,7 +3942,7 @@
     <row r="10" spans="1:15">
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -3880,7 +3960,7 @@
     <row r="11" spans="1:15">
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -3950,7 +4030,7 @@
     <row r="15" spans="1:15">
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3968,7 +4048,7 @@
     <row r="16" spans="1:15">
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -4020,7 +4100,7 @@
     <row r="19" spans="2:15">
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -4038,7 +4118,7 @@
     <row r="20" spans="2:15">
       <c r="B20" s="8"/>
       <c r="C20" s="9" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -4056,7 +4136,7 @@
     <row r="21" spans="2:15">
       <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -4126,7 +4206,7 @@
     <row r="25" spans="2:15">
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -4162,7 +4242,7 @@
     <row r="27" spans="2:15">
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -4180,7 +4260,7 @@
     <row r="28" spans="2:15">
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -4265,17 +4345,17 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="B3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -4299,7 +4379,7 @@
     <row r="7" spans="1:17">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4319,7 +4399,7 @@
     <row r="8" spans="1:17">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4339,7 +4419,7 @@
     <row r="9" spans="1:17">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -4359,7 +4439,7 @@
     <row r="10" spans="1:17">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4379,7 +4459,7 @@
     <row r="11" spans="1:17">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4399,7 +4479,7 @@
     <row r="12" spans="1:17">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -4419,7 +4499,7 @@
     <row r="13" spans="1:17">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4459,7 +4539,7 @@
     <row r="15" spans="1:17">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4479,7 +4559,7 @@
     <row r="16" spans="1:17">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4519,7 +4599,7 @@
     <row r="18" spans="2:17">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4539,7 +4619,7 @@
     <row r="19" spans="2:17">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4579,7 +4659,7 @@
     <row r="21" spans="2:17">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4599,7 +4679,7 @@
     <row r="22" spans="2:17">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4713,7 +4793,7 @@
     <row r="28" spans="2:17">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4733,7 +4813,7 @@
     <row r="29" spans="2:17">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4753,7 +4833,7 @@
     <row r="30" spans="2:17">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4773,7 +4853,7 @@
     <row r="31" spans="2:17">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4793,7 +4873,7 @@
     <row r="32" spans="2:17">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4887,7 +4967,7 @@
     <row r="37" spans="2:17">
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4907,7 +4987,7 @@
     <row r="38" spans="2:17">
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4927,7 +5007,7 @@
     <row r="39" spans="2:17">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -4967,7 +5047,7 @@
     <row r="41" spans="2:17">
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4987,7 +5067,7 @@
     <row r="42" spans="2:17">
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5027,7 +5107,7 @@
     <row r="44" spans="2:17">
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -5047,7 +5127,7 @@
     <row r="45" spans="2:17">
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -5067,7 +5147,7 @@
     <row r="46" spans="2:17">
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -5087,7 +5167,7 @@
     <row r="47" spans="2:17">
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -5107,7 +5187,7 @@
     <row r="48" spans="2:17">
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -5147,7 +5227,7 @@
     <row r="50" spans="2:17">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -5167,7 +5247,7 @@
     <row r="51" spans="2:17">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -5187,7 +5267,7 @@
     <row r="52" spans="2:17">
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -5207,7 +5287,7 @@
     <row r="53" spans="2:17">
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -5321,7 +5401,7 @@
     <row r="59" spans="2:17">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -5361,7 +5441,7 @@
     <row r="61" spans="2:17">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -5381,7 +5461,7 @@
     <row r="62" spans="2:17">
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5401,7 +5481,7 @@
     <row r="63" spans="2:17">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5421,7 +5501,7 @@
     <row r="64" spans="2:17">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5441,7 +5521,7 @@
     <row r="65" spans="2:17">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5461,7 +5541,7 @@
     <row r="66" spans="2:17">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5501,7 +5581,7 @@
     <row r="68" spans="2:17">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5521,7 +5601,7 @@
     <row r="69" spans="2:17">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5541,7 +5621,7 @@
     <row r="70" spans="2:17">
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5561,7 +5641,7 @@
     <row r="71" spans="2:17">
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5581,7 +5661,7 @@
     <row r="72" spans="2:17">
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5601,7 +5681,7 @@
     <row r="73" spans="2:17">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5621,7 +5701,7 @@
     <row r="74" spans="2:17">
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5641,7 +5721,7 @@
     <row r="75" spans="2:17">
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5726,41 +5806,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A04BBD-7C0D-4830-866A-47E6085EC4D1}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -5779,7 +5859,7 @@
     <row r="10" spans="1:16">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5798,7 +5878,7 @@
     <row r="11" spans="1:16">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -5817,7 +5897,7 @@
     <row r="12" spans="1:16">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5836,7 +5916,7 @@
     <row r="13" spans="1:16">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -5855,7 +5935,7 @@
     <row r="14" spans="1:16">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5874,7 +5954,7 @@
     <row r="15" spans="1:16">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5912,7 +5992,7 @@
     <row r="17" spans="2:16">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -5967,7 +6047,7 @@
     <row r="21" spans="2:16">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -5986,7 +6066,7 @@
     <row r="22" spans="2:16">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -6005,7 +6085,7 @@
     <row r="23" spans="2:16">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -6024,7 +6104,7 @@
     <row r="24" spans="2:16">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -6043,7 +6123,7 @@
     <row r="25" spans="2:16">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -6062,7 +6142,7 @@
     <row r="26" spans="2:16">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -6117,7 +6197,7 @@
     <row r="30" spans="2:16">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -6136,7 +6216,7 @@
     <row r="31" spans="2:16">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -6155,7 +6235,7 @@
     <row r="32" spans="2:16">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -6174,7 +6254,7 @@
     <row r="33" spans="2:16">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -6193,7 +6273,7 @@
     <row r="34" spans="2:16">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -6231,7 +6311,7 @@
     <row r="36" spans="2:16">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -6250,7 +6330,7 @@
     <row r="37" spans="2:16">
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -6288,7 +6368,7 @@
     <row r="39" spans="2:16">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -6307,7 +6387,7 @@
     <row r="40" spans="2:16">
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -6345,7 +6425,7 @@
     <row r="42" spans="2:16">
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -6364,7 +6444,7 @@
     <row r="43" spans="2:16">
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -6383,7 +6463,7 @@
     <row r="44" spans="2:16">
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -6402,7 +6482,7 @@
     <row r="45" spans="2:16">
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -6421,7 +6501,7 @@
     <row r="46" spans="2:16">
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -6459,7 +6539,7 @@
     <row r="48" spans="2:16">
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -6478,7 +6558,7 @@
     <row r="49" spans="2:16">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -6552,7 +6632,7 @@
     <row r="54" spans="2:16">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -6571,7 +6651,7 @@
     <row r="55" spans="2:16">
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -6590,7 +6670,7 @@
     <row r="56" spans="2:16">
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -6609,7 +6689,7 @@
     <row r="57" spans="2:16">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -6628,7 +6708,7 @@
     <row r="58" spans="2:16">
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -6666,7 +6746,7 @@
     <row r="60" spans="2:16">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -6685,7 +6765,7 @@
     <row r="61" spans="2:16">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -6704,7 +6784,7 @@
     <row r="62" spans="2:16">
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -6723,7 +6803,7 @@
     <row r="63" spans="2:16">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -6742,7 +6822,7 @@
     <row r="64" spans="2:16">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -6816,7 +6896,7 @@
     <row r="69" spans="2:16">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -6835,7 +6915,7 @@
     <row r="70" spans="2:16">
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -6854,7 +6934,7 @@
     <row r="71" spans="2:16">
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -6873,7 +6953,7 @@
     <row r="72" spans="2:16">
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -6892,7 +6972,7 @@
     <row r="73" spans="2:16">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -6934,60 +7014,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F7E5B1-9AEC-47A8-B63D-0BB9FEF4DFE7}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>105</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7002,7 +7052,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -7015,9 +7065,24 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
     <row r="10" spans="1:13">
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -7030,24 +7095,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
     <row r="12" spans="1:13">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -7062,7 +7112,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7074,13 +7124,10 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13">
-        <v>8</v>
-      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7092,13 +7139,10 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14">
-        <v>9</v>
-      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -7110,10 +7154,13 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
+      <c r="M15">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -7125,10 +7172,13 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
+      <c r="M16">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -7140,13 +7190,10 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17">
-        <v>11</v>
-      </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -7158,13 +7205,10 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18">
-        <v>12</v>
-      </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -7176,10 +7220,31 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
+      <c r="M19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -7192,24 +7257,9 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
     <row r="23" spans="2:13">
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -7224,7 +7274,7 @@
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -7236,13 +7286,10 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24">
-        <v>4</v>
-      </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -7254,13 +7301,10 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25">
-        <v>5</v>
-      </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -7272,10 +7316,13 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
+      <c r="M26">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -7287,10 +7334,13 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
+      <c r="M27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -7303,9 +7353,24 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
     <row r="30" spans="2:13">
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7318,27 +7383,9 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31">
-        <v>2</v>
-      </c>
-    </row>
     <row r="32" spans="2:13">
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -7353,7 +7400,7 @@
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -7366,12 +7413,12 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -7383,13 +7430,10 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34">
-        <v>7</v>
-      </c>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -7401,10 +7445,13 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
+      <c r="M35">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -7416,10 +7463,28 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
+      <c r="M36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -7432,24 +7497,9 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
     <row r="40" spans="2:14">
       <c r="B40" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -7464,7 +7514,7 @@
     </row>
     <row r="41" spans="2:14">
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -7476,16 +7526,10 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -7500,7 +7544,7 @@
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -7513,15 +7557,15 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -7533,13 +7577,10 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44">
-        <v>3</v>
-      </c>
     </row>
     <row r="45" spans="2:14">
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -7554,10 +7595,13 @@
       <c r="M45">
         <v>3</v>
       </c>
+      <c r="N45" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -7569,10 +7613,13 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
+      <c r="M46">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -7585,12 +7632,12 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -7602,13 +7649,10 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48">
-        <v>10</v>
-      </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -7626,7 +7670,7 @@
     </row>
     <row r="50" spans="2:13">
       <c r="B50" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -7638,10 +7682,13 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
+      <c r="M50">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="2:13">
       <c r="B51" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -7653,56 +7700,1418 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
+      <c r="M51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
     </row>
     <row r="55" spans="2:13">
       <c r="B55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="2:13">
       <c r="B56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="61" spans="2:13">
       <c r="B61" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="2:13">
       <c r="B62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="2:13">
       <c r="B63" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" xr:uid="{5A4C1566-503F-4779-AA39-E08AB039A966}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{5A4C1566-503F-4779-AA39-E08AB039A966}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9A98FC-6742-4276-9F8B-879A6FC2DC00}">
+  <dimension ref="A1:Q76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="2"/>
+      <c r="C11" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="2"/>
+      <c r="C23" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="2"/>
+      <c r="C34" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="2"/>
+      <c r="C60" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="2:17">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="2:17">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="2:17">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="2:17">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{F086FD51-323D-4566-8DD3-678E44B67245}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
